--- a/CP03ISSM/Omaha_Cal_Info_CP03ISSM_00002.xlsx
+++ b/CP03ISSM/Omaha_Cal_Info_CP03ISSM_00002.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2740" windowWidth="34560" windowHeight="18000" tabRatio="766"/>
+    <workbookView xWindow="300" yWindow="2745" windowWidth="34560" windowHeight="16440" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="ACS130_CC_taarray" sheetId="5" r:id="rId5"/>
     <sheet name="ACS130_CC_tcarray" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="202">
   <si>
     <t>Ref Des</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Calibration Cofficient Value</t>
-  </si>
-  <si>
-    <t>CP03ISSM-SBD11-01-MOPAKO000</t>
   </si>
   <si>
     <t>CP03ISSM-00001-MOPAK</t>
@@ -437,9 +434,6 @@
     <t>CC_eb620</t>
   </si>
   <si>
-    <t>No Calibration Cofficient</t>
-  </si>
-  <si>
     <t>CP03ISSM-SBC11-00-CPMENG000</t>
   </si>
   <si>
@@ -634,16 +628,30 @@
   <si>
     <t>26-1329</t>
   </si>
+  <si>
+    <t>CP03ISSM-SBD11-01-MOPAK0000</t>
+  </si>
+  <si>
+    <t>CP03ISSM-00001-SBD11-02-HYDGN0000</t>
+  </si>
+  <si>
+    <t>CP03ISSM-00001-SBD12-03-HYDGN0000</t>
+  </si>
+  <si>
+    <t>40°21.5667'N</t>
+  </si>
+  <si>
+    <t>70°53.1167'W</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm\-yy;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -886,7 +894,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -898,7 +906,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="19" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,7 +922,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,6 +1148,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1468,23 +1481,25 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="6" width="8.83203125" style="2"/>
-    <col min="7" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="35.5" style="1" customWidth="1"/>
-    <col min="12" max="1025" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="35.42578125" style="1" customWidth="1"/>
+    <col min="12" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="9" customFormat="1" ht="42">
+    <row r="1" spans="1:1025" s="9" customFormat="1" ht="38.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="11">
         <v>2</v>
@@ -1536,20 +1551,20 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="F2" s="12"/>
-      <c r="G2" s="10">
-        <v>40.359383333333334</v>
-      </c>
-      <c r="H2" s="10">
-        <v>-70.885300000000001</v>
+      <c r="G2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="I2" s="10">
         <v>97</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
@@ -2579,27 +2594,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK189"/>
+  <dimension ref="A1:AMK194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="14" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="14" customWidth="1"/>
     <col min="4" max="4" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" style="14" customWidth="1"/>
-    <col min="8" max="1025" width="8.83203125" style="14"/>
+    <col min="5" max="5" width="39.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" style="14" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="16" customFormat="1" ht="28">
+    <row r="1" spans="1:1024" s="16" customFormat="1" ht="25.5">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3650,21 +3665,21 @@
     </row>
     <row r="3" spans="1:1024">
       <c r="A3" s="14" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="14">
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -4684,38 +4699,41 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="5" spans="1:1024" s="27" customFormat="1">
+    <row r="5" spans="1:1024" s="27" customFormat="1" ht="12.75">
       <c r="A5" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="27">
         <v>2</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:1024">
       <c r="A7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="14">
         <v>2</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="28">
         <v>40.359383333333334</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -5737,25 +5755,25 @@
     </row>
     <row r="8" spans="1:1024">
       <c r="A8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="14">
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="28">
         <v>-70.885300000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -6777,25 +6795,25 @@
     </row>
     <row r="9" spans="1:1024">
       <c r="A9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="14">
         <v>2</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="28">
         <v>1.0668</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -7817,25 +7835,25 @@
     </row>
     <row r="10" spans="1:1024">
       <c r="A10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10" s="14">
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="28">
         <v>4.2926000000000002</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -8857,25 +8875,25 @@
     </row>
     <row r="11" spans="1:1024">
       <c r="A11" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="28">
         <v>4.2926000000000002</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -9897,25 +9915,25 @@
     </row>
     <row r="12" spans="1:1024">
       <c r="A12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="14">
         <v>2</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="28">
         <v>4.7497999999999996</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -10937,25 +10955,25 @@
     </row>
     <row r="13" spans="1:1024">
       <c r="A13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="14">
         <v>2</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="32">
         <v>1</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -11977,25 +11995,25 @@
     </row>
     <row r="14" spans="1:1024">
       <c r="A14" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="14">
         <v>2</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="32">
         <v>1</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -13017,25 +13035,25 @@
     </row>
     <row r="15" spans="1:1024">
       <c r="A15" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="14">
         <v>2</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="32">
         <v>600</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -15081,34 +15099,37 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" s="27" customFormat="1">
+    <row r="17" spans="1:1024" s="27" customFormat="1" ht="12.75">
       <c r="A17" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>158</v>
       </c>
       <c r="C17" s="27">
         <v>2</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:1024">
       <c r="A19" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="14">
         <v>2</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -17156,25 +17177,24 @@
     </row>
     <row r="21" spans="1:1024">
       <c r="A21" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21" s="14">
         <v>2</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="28">
         <v>40.359383333333334</v>
       </c>
       <c r="G21"/>
-      <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -18194,25 +18214,24 @@
     </row>
     <row r="22" spans="1:1024">
       <c r="A22" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C22" s="14">
         <v>2</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="28">
         <v>-70.885300000000001</v>
       </c>
       <c r="G22"/>
-      <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -19238,7 +19257,6 @@
       <c r="E23"/>
       <c r="F23" s="29"/>
       <c r="G23"/>
-      <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -20258,25 +20276,24 @@
     </row>
     <row r="24" spans="1:1024">
       <c r="A24" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C24" s="14">
         <v>2</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="28">
         <v>40.359383333333334</v>
       </c>
       <c r="G24"/>
-      <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -21296,25 +21313,24 @@
     </row>
     <row r="25" spans="1:1024">
       <c r="A25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C25" s="14">
         <v>2</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="28">
         <v>-70.885300000000001</v>
       </c>
       <c r="G25"/>
-      <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -22340,7 +22356,6 @@
       <c r="E26"/>
       <c r="F26" s="29"/>
       <c r="G26"/>
-      <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -23360,25 +23375,24 @@
     </row>
     <row r="27" spans="1:1024">
       <c r="A27" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C27" s="14">
         <v>2</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="28">
         <v>17533</v>
       </c>
       <c r="G27"/>
-      <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -24398,25 +24412,24 @@
     </row>
     <row r="28" spans="1:1024">
       <c r="A28" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" s="14">
         <v>2</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="28">
         <v>101</v>
       </c>
       <c r="G28"/>
-      <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -25436,25 +25449,24 @@
     </row>
     <row r="29" spans="1:1024">
       <c r="A29" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C29" s="14">
         <v>2</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="28">
         <v>2229</v>
       </c>
       <c r="G29"/>
-      <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -26474,25 +26486,24 @@
     </row>
     <row r="30" spans="1:1024">
       <c r="A30" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" s="14">
         <v>2</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="28">
         <v>38502</v>
       </c>
       <c r="G30"/>
-      <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -27512,25 +27523,24 @@
     </row>
     <row r="31" spans="1:1024">
       <c r="A31" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C31" s="14">
         <v>2</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="33">
         <v>0</v>
       </c>
       <c r="G31"/>
-      <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -28550,25 +28560,24 @@
     </row>
     <row r="32" spans="1:1024">
       <c r="A32" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C32" s="14">
         <v>2</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="33">
         <v>1</v>
       </c>
       <c r="G32"/>
-      <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -29588,27 +29597,26 @@
     </row>
     <row r="33" spans="1:1024">
       <c r="A33" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C33" s="14">
         <v>2</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="32">
         <v>35</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33"/>
+        <v>26</v>
+      </c>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -30634,7 +30642,6 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
-      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -31654,25 +31661,24 @@
     </row>
     <row r="35" spans="1:1024">
       <c r="A35" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C35" s="14">
         <v>2</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="28">
         <v>17533</v>
       </c>
       <c r="G35"/>
-      <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -32692,25 +32698,24 @@
     </row>
     <row r="36" spans="1:1024">
       <c r="A36" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C36" s="14">
         <v>2</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" s="28">
         <v>101</v>
       </c>
       <c r="G36"/>
-      <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
@@ -33730,25 +33735,24 @@
     </row>
     <row r="37" spans="1:1024">
       <c r="A37" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" s="14">
         <v>2</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="28">
         <v>2229</v>
       </c>
       <c r="G37"/>
-      <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -34768,25 +34772,24 @@
     </row>
     <row r="38" spans="1:1024">
       <c r="A38" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C38" s="14">
         <v>2</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" s="28">
         <v>38502</v>
       </c>
       <c r="G38"/>
-      <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
@@ -35806,25 +35809,24 @@
     </row>
     <row r="39" spans="1:1024">
       <c r="A39" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C39" s="14">
         <v>2</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" s="33">
         <v>0</v>
       </c>
       <c r="G39"/>
-      <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
@@ -36844,25 +36846,24 @@
     </row>
     <row r="40" spans="1:1024">
       <c r="A40" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C40" s="14">
         <v>2</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" s="33">
         <v>1</v>
       </c>
       <c r="G40"/>
-      <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -37882,27 +37883,26 @@
     </row>
     <row r="41" spans="1:1024">
       <c r="A41" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41" s="14">
         <v>2</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41" s="32">
         <v>35</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41"/>
+        <v>26</v>
+      </c>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -38928,7 +38928,6 @@
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
-      <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -39948,25 +39947,24 @@
     </row>
     <row r="43" spans="1:1024">
       <c r="A43" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C43" s="14">
         <v>2</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G43"/>
-      <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -40986,25 +40984,24 @@
     </row>
     <row r="44" spans="1:1024">
       <c r="A44" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C44" s="14">
         <v>2</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G44"/>
-      <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -42024,19 +42021,19 @@
     </row>
     <row r="45" spans="1:1024">
       <c r="A45" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" s="14">
         <v>2</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" s="28">
         <v>19.5</v>
@@ -43062,22 +43059,22 @@
     </row>
     <row r="46" spans="1:1024">
       <c r="A46" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C46" s="14">
         <v>2</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -44100,22 +44097,22 @@
     </row>
     <row r="47" spans="1:1024">
       <c r="A47" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C47" s="14">
         <v>2</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -45138,22 +45135,22 @@
     </row>
     <row r="48" spans="1:1024">
       <c r="A48" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48" s="14">
         <v>2</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -46176,22 +46173,22 @@
     </row>
     <row r="49" spans="1:1024">
       <c r="A49" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49" s="14">
         <v>2</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -47212,24 +47209,24 @@
       <c r="AMI49"/>
       <c r="AMJ49"/>
     </row>
-    <row r="50" spans="1:1024" s="20" customFormat="1">
+    <row r="50" spans="1:1024" s="20" customFormat="1" ht="12.75">
       <c r="A50" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C50" s="20">
         <v>2</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:1024">
@@ -47243,61 +47240,61 @@
     </row>
     <row r="52" spans="1:1024">
       <c r="A52" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C52" s="14">
         <v>2</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:1024">
       <c r="A53" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C53" s="14">
         <v>2</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:1024">
       <c r="A54" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54" s="14">
         <v>2</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F54" s="28">
         <v>17.7</v>
@@ -47306,106 +47303,106 @@
     </row>
     <row r="55" spans="1:1024">
       <c r="A55" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C55" s="14">
         <v>2</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:1024">
       <c r="A56" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C56" s="14">
         <v>2</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G56"/>
     </row>
     <row r="57" spans="1:1024">
       <c r="A57" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C57" s="14">
         <v>2</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G57"/>
     </row>
     <row r="58" spans="1:1024">
       <c r="A58" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" s="14">
         <v>2</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G58"/>
     </row>
     <row r="59" spans="1:1024">
       <c r="A59" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C59" s="14">
         <v>2</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G59"/>
     </row>
@@ -47420,10 +47417,10 @@
     </row>
     <row r="61" spans="1:1024">
       <c r="A61" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C61" s="14">
         <v>2</v>
@@ -47432,7 +47429,7 @@
         <v>1222</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F61" s="28">
         <v>64</v>
@@ -47441,10 +47438,10 @@
     </row>
     <row r="62" spans="1:1024">
       <c r="A62" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C62" s="14">
         <v>2</v>
@@ -47453,7 +47450,7 @@
         <v>1222</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F62" s="37">
         <v>1.9530000000000002E-6</v>
@@ -47462,10 +47459,10 @@
     </row>
     <row r="63" spans="1:1024">
       <c r="A63" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C63" s="14">
         <v>2</v>
@@ -47474,7 +47471,7 @@
         <v>1222</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F63" s="28">
         <v>47</v>
@@ -47483,10 +47480,10 @@
     </row>
     <row r="64" spans="1:1024">
       <c r="A64" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C64" s="14">
         <v>2</v>
@@ -47495,7 +47492,7 @@
         <v>1222</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F64" s="28">
         <v>1.21E-2</v>
@@ -47504,10 +47501,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C65" s="14">
         <v>2</v>
@@ -47516,7 +47513,7 @@
         <v>1222</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F65" s="28">
         <v>44</v>
@@ -47525,10 +47522,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C66" s="14">
         <v>2</v>
@@ -47537,7 +47534,7 @@
         <v>1222</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F66" s="28">
         <v>9.0399999999999994E-2</v>
@@ -47546,10 +47543,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C67" s="14">
         <v>2</v>
@@ -47558,21 +47555,21 @@
         <v>1222</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F67" s="34">
         <v>124</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C68" s="14">
         <v>2</v>
@@ -47581,21 +47578,21 @@
         <v>1222</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F68" s="34">
         <v>700</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C69" s="14">
         <v>2</v>
@@ -47604,21 +47601,21 @@
         <v>1222</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F69" s="34">
         <v>1.0760000000000001</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C70" s="14">
         <v>2</v>
@@ -47627,13 +47624,13 @@
         <v>1222</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F70" s="34">
         <v>3.9E-2</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -47647,19 +47644,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C72" s="14">
         <v>2</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F72" s="28">
         <v>40.359383333333334</v>
@@ -47668,19 +47665,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C73" s="14">
         <v>2</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F73" s="28">
         <v>-70.885300000000001</v>
@@ -47689,19 +47686,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C74" s="14">
         <v>2</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F74" s="28">
         <v>1.256273E-3</v>
@@ -47710,19 +47707,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C75" s="14">
         <v>2</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F75" s="28">
         <v>2.7381850000000001E-4</v>
@@ -47731,19 +47728,19 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C76" s="14">
         <v>2</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F76" s="28">
         <v>-1.1250199999999999E-6</v>
@@ -47752,19 +47749,19 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C77" s="14">
         <v>2</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F77" s="28">
         <v>1.8397970000000001E-7</v>
@@ -47773,19 +47770,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C78" s="14">
         <v>2</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F78" s="28">
         <v>-65.473010000000002</v>
@@ -47794,19 +47791,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C79" s="14">
         <v>2</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F79" s="28">
         <v>52.401969999999999</v>
@@ -47815,341 +47812,344 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C80" s="14">
         <v>2</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F80" s="28">
         <v>-0.52704479999999998</v>
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C81" s="14">
         <v>2</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F81" s="28">
         <v>509054.5</v>
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C82" s="14">
         <v>2</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F82" s="28">
         <v>-39.351739999999999</v>
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C83" s="14">
         <v>2</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F83" s="28">
         <v>0.58878529999999996</v>
       </c>
       <c r="G83"/>
+      <c r="H83"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C84" s="14">
         <v>2</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F84" s="28">
         <v>24.950130000000001</v>
       </c>
       <c r="G84"/>
+      <c r="H84"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C85" s="14">
         <v>2</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F85" s="28">
         <v>-9.7499999999999996E-4</v>
       </c>
       <c r="G85"/>
+      <c r="H85"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C86" s="14">
         <v>2</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F86" s="28">
         <v>0</v>
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C87" s="14">
         <v>2</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F87" s="28">
         <v>-0.27649109999999999</v>
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C88" s="14">
         <v>2</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F88" s="28">
         <v>4.674716E-4</v>
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C89" s="14">
         <v>2</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F89" s="28">
         <v>-4.0824430000000002E-12</v>
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C90" s="14">
         <v>2</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F90" s="28">
         <v>-0.97573339999999997</v>
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C91" s="14">
         <v>2</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F91" s="28">
         <v>0.14553940000000001</v>
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C92" s="14">
         <v>2</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F92" s="28">
         <v>-1.5039409999999999E-4</v>
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C93" s="14">
         <v>2</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F93" s="28">
         <v>3.1549679999999999E-5</v>
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C94" s="14">
         <v>2</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F94" s="28">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C95" s="14">
         <v>2</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F95" s="28">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -48160,19 +48160,19 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C97" s="14">
         <v>2</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F97" s="28">
         <v>40.359383333333334</v>
@@ -48181,19 +48181,19 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C98" s="14">
         <v>2</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F98" s="28">
         <v>-70.885300000000001</v>
@@ -48202,19 +48202,19 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C99" s="14">
         <v>2</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F99" s="28">
         <v>1.260873E-3</v>
@@ -48223,19 +48223,19 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C100" s="14">
         <v>2</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F100" s="28">
         <v>2.7196540000000002E-4</v>
@@ -48244,19 +48244,19 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C101" s="14">
         <v>2</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F101" s="28">
         <v>-9.804536E-7</v>
@@ -48265,19 +48265,19 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="14">
         <v>2</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F102" s="28">
         <v>1.780167E-7</v>
@@ -48286,19 +48286,19 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C103" s="14">
         <v>2</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F103" s="28">
         <v>-67.553910000000002</v>
@@ -48307,19 +48307,19 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C104" s="14">
         <v>2</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F104" s="28">
         <v>51.100990000000003</v>
@@ -48328,19 +48328,19 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C105" s="14">
         <v>2</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F105" s="28">
         <v>-0.33188099999999998</v>
@@ -48349,19 +48349,19 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C106" s="14">
         <v>2</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F106" s="28">
         <v>525416.80000000005</v>
@@ -48370,19 +48370,19 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C107" s="14">
         <v>2</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F107" s="28">
         <v>2.8752270000000002</v>
@@ -48391,19 +48391,19 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C108" s="14">
         <v>2</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F108" s="28">
         <v>-9.0869469999999994E-2</v>
@@ -48412,19 +48412,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C109" s="14">
         <v>2</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F109" s="28">
         <v>25.109629999999999</v>
@@ -48433,19 +48433,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C110" s="14">
         <v>2</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F110" s="28">
         <v>-6.7500000000000004E-4</v>
@@ -48454,19 +48454,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C111" s="14">
         <v>2</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F111" s="28">
         <v>0</v>
@@ -48475,19 +48475,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C112" s="14">
         <v>2</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F112" s="28">
         <v>3.1207929999999998E-2</v>
@@ -48496,19 +48496,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C113" s="14">
         <v>2</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F113" s="28">
         <v>1.5466919999999999E-3</v>
@@ -48517,19 +48517,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C114" s="14">
         <v>2</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F114" s="28">
         <v>5.5330189999999996E-12</v>
@@ -48538,19 +48538,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C115" s="14">
         <v>2</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F115" s="28">
         <v>-0.97371370000000002</v>
@@ -48559,19 +48559,19 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C116" s="14">
         <v>2</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F116" s="28">
         <v>0.15092559999999999</v>
@@ -48580,19 +48580,19 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C117" s="14">
         <v>2</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F117" s="28">
         <v>-1.5058270000000001E-4</v>
@@ -48601,19 +48601,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C118" s="14">
         <v>2</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F118" s="28">
         <v>3.3778990000000002E-5</v>
@@ -48622,19 +48622,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C119" s="14">
         <v>2</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F119" s="28">
         <v>-9.5700000000000003E-8</v>
@@ -48643,19 +48643,19 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C120" s="14">
         <v>2</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F120" s="28">
         <v>3.2499999999999998E-6</v>
@@ -48673,10 +48673,10 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C122" s="14">
         <v>2</v>
@@ -48685,7 +48685,7 @@
         <v>130</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F122" s="28">
         <v>40.359383333333334</v>
@@ -48694,10 +48694,10 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C123" s="14">
         <v>2</v>
@@ -48706,7 +48706,7 @@
         <v>130</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F123" s="28">
         <v>-70.885300000000001</v>
@@ -48715,10 +48715,10 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C124" s="14">
         <v>2</v>
@@ -48727,10 +48727,10 @@
         <v>130</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G124"/>
     </row>
@@ -48745,10 +48745,10 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C126" s="14">
         <v>2</v>
@@ -48757,7 +48757,7 @@
         <v>225</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F126" s="28">
         <v>40.359383333333334</v>
@@ -48766,10 +48766,10 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C127" s="14">
         <v>2</v>
@@ -48778,7 +48778,7 @@
         <v>225</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F127" s="28">
         <v>-70.885300000000001</v>
@@ -48787,10 +48787,10 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C128" s="14">
         <v>2</v>
@@ -48799,10 +48799,10 @@
         <v>225</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F128" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G128"/>
     </row>
@@ -48817,10 +48817,10 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C130" s="14">
         <v>2</v>
@@ -48829,21 +48829,21 @@
         <v>270</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F130" s="32">
         <v>217</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C131" s="14">
         <v>2</v>
@@ -48852,21 +48852,21 @@
         <v>270</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F131" s="32">
         <v>240</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C132" s="14">
         <v>2</v>
@@ -48875,7 +48875,7 @@
         <v>270</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F132" s="28">
         <v>20.059999999999999</v>
@@ -48884,10 +48884,10 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C133" s="14">
         <v>2</v>
@@ -48896,19 +48896,19 @@
         <v>270</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F133" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G133"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C134" s="14">
         <v>2</v>
@@ -48917,19 +48917,19 @@
         <v>270</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F134" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G134"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C135" s="14">
         <v>2</v>
@@ -48938,19 +48938,19 @@
         <v>270</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F135" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G135"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C136" s="14">
         <v>2</v>
@@ -48959,10 +48959,10 @@
         <v>270</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G136"/>
     </row>
@@ -48977,10 +48977,10 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C138" s="14">
         <v>2</v>
@@ -48989,19 +48989,19 @@
         <v>273</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F138" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G138"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C139" s="14">
         <v>2</v>
@@ -49010,19 +49010,19 @@
         <v>273</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F139" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G139"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C140" s="14">
         <v>2</v>
@@ -49031,10 +49031,10 @@
         <v>273</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F140" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G140"/>
     </row>
@@ -49049,10 +49049,10 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C142" s="14">
         <v>2</v>
@@ -49061,7 +49061,7 @@
         <v>18594</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F142" s="28">
         <v>97000</v>
@@ -49070,10 +49070,10 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C143" s="14">
         <v>2</v>
@@ -49082,7 +49082,7 @@
         <v>18594</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F143" s="28">
         <v>40.359383333333334</v>
@@ -49091,10 +49091,10 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C144" s="14">
         <v>2</v>
@@ -49103,7 +49103,7 @@
         <v>18594</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F144" s="28">
         <v>-70.885300000000001</v>
@@ -49112,10 +49112,10 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C145" s="14">
         <v>2</v>
@@ -49124,7 +49124,7 @@
         <v>18594</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F145" s="32">
         <v>0.45</v>
@@ -49133,10 +49133,10 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C146" s="14">
         <v>2</v>
@@ -49145,7 +49145,7 @@
         <v>18594</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F146" s="32">
         <v>0.45</v>
@@ -49154,10 +49154,10 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C147" s="14">
         <v>2</v>
@@ -49166,7 +49166,7 @@
         <v>18594</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F147" s="32">
         <v>0.45</v>
@@ -49175,10 +49175,10 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C148" s="14">
         <v>2</v>
@@ -49187,7 +49187,7 @@
         <v>18594</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F148" s="32">
         <v>0.45</v>
@@ -49205,19 +49205,19 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C150" s="14">
         <v>2</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F150" s="28">
         <v>2064.6590000000001</v>
@@ -49226,19 +49226,19 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C151" s="14">
         <v>2</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F151" s="28">
         <v>14.16356</v>
@@ -49247,19 +49247,19 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C152" s="14">
         <v>2</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F152" s="28">
         <v>-3193.857</v>
@@ -49268,19 +49268,19 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C153" s="14">
         <v>2</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F153" s="28">
         <v>1.1655E-2</v>
@@ -49289,19 +49289,19 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C154" s="14">
         <v>2</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F154" s="28">
         <v>0</v>
@@ -49310,42 +49310,42 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C155" s="14">
         <v>2</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F155" s="32">
         <v>0</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C156" s="14">
         <v>2</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F156" s="28">
         <v>-0.2472</v>
@@ -49354,42 +49354,42 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C157" s="14">
         <v>2</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F157" s="32">
         <v>1</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C158" s="14">
         <v>2</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F158" s="28">
         <v>27.61045</v>
@@ -49398,19 +49398,19 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C159" s="14">
         <v>2</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F159" s="28">
         <v>0.23627100000000001</v>
@@ -49419,103 +49419,103 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C160" s="14">
         <v>2</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F160" s="28">
         <v>16.693860000000001</v>
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:8">
       <c r="A161" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C161" s="14">
         <v>2</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F161" s="28">
         <v>32.303669999999997</v>
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:8">
       <c r="A162" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C162" s="14">
         <v>2</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F162" s="28">
         <v>5.8436409999999999</v>
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:8">
       <c r="A163" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C163" s="14">
         <v>2</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F163" s="28">
         <v>-3952.915</v>
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:8">
       <c r="A164" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C164" s="14">
         <v>2</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F164" s="28">
         <f>10377.22</f>
@@ -49523,70 +49523,70 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:8">
       <c r="A165" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C165" s="14">
         <v>2</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F165" s="28">
         <v>0</v>
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:8">
       <c r="A166" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C166" s="14">
         <v>2</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F166" s="32">
         <v>2796.2</v>
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:8">
       <c r="A167" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C167" s="14">
         <v>2</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F167" s="32">
         <v>41943</v>
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:8">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -49595,181 +49595,184 @@
       <c r="F168"/>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:8">
       <c r="A169" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C169" s="14">
         <v>2</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F169" s="28">
         <v>-8.3999999999999995E-3</v>
       </c>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:8">
       <c r="A170" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C170" s="14">
         <v>2</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F170" s="28">
         <v>0.91239999999999999</v>
       </c>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:8">
       <c r="A171" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C171" s="14">
         <v>2</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F171" s="28">
         <v>-1.958</v>
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:8">
       <c r="A172" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C172" s="14">
         <v>2</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F172" s="28">
         <v>14.77</v>
       </c>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:8">
       <c r="A173" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C173" s="14">
         <v>2</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F173" s="32">
         <v>19706</v>
       </c>
       <c r="G173" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:8">
       <c r="A174" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C174" s="14">
         <v>2</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F174" s="32">
         <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>174</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H174"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:8">
       <c r="A175" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C175" s="14">
         <v>2</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F175" s="32">
         <v>3073</v>
       </c>
       <c r="G175" t="s">
-        <v>174</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H175"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:8">
       <c r="A176" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C176" s="14">
         <v>2</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F176" s="32">
         <v>44327</v>
       </c>
       <c r="G176" t="s">
-        <v>174</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H176"/>
     </row>
     <row r="177" spans="1:1025">
       <c r="A177"/>
@@ -49777,28 +49780,23 @@
       <c r="C177"/>
       <c r="D177" s="29"/>
       <c r="G177"/>
+      <c r="H177"/>
     </row>
     <row r="178" spans="1:1025" s="24" customFormat="1">
-      <c r="A178" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C178" s="17">
-        <v>2</v>
-      </c>
-      <c r="D178" s="30">
-        <v>55080</v>
-      </c>
       <c r="E178" s="17"/>
       <c r="F178" s="17"/>
-      <c r="G178" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H178" s="17"/>
-      <c r="I178" s="17"/>
-      <c r="J178" s="17"/>
+      <c r="G178" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H178" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I178" s="17">
+        <v>2</v>
+      </c>
+      <c r="J178" s="30">
+        <v>55080</v>
+      </c>
       <c r="K178" s="17"/>
       <c r="L178" s="17"/>
       <c r="M178" s="17"/>
@@ -50821,57 +50819,61 @@
       <c r="C179"/>
       <c r="D179"/>
       <c r="G179"/>
+      <c r="H179"/>
     </row>
     <row r="180" spans="1:1025">
       <c r="A180" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C180" s="14">
         <v>2</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G180" s="30" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="H180"/>
     </row>
     <row r="181" spans="1:1025">
       <c r="A181" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C181" s="14">
         <v>2</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="H181"/>
     </row>
     <row r="182" spans="1:1025">
       <c r="A182" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C182" s="14">
         <v>2</v>
       </c>
       <c r="D182" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G182" s="30" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="H182"/>
     </row>
     <row r="183" spans="1:1025">
       <c r="A183"/>
@@ -50879,108 +50881,130 @@
       <c r="C183"/>
       <c r="D183" s="18"/>
       <c r="G183" s="30"/>
+      <c r="H183"/>
     </row>
     <row r="184" spans="1:1025">
       <c r="A184" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C184" s="14">
         <v>2</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G184" s="30" t="s">
-        <v>143</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H184"/>
     </row>
     <row r="185" spans="1:1025">
       <c r="A185" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C185" s="14">
         <v>2</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>143</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H185"/>
     </row>
     <row r="186" spans="1:1025">
       <c r="A186" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C186" s="14">
         <v>2</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G186" s="30" t="s">
-        <v>143</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H186"/>
     </row>
     <row r="187" spans="1:1025">
       <c r="A187" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C187" s="14">
         <v>2</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G187" s="30" t="s">
-        <v>143</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H187"/>
     </row>
     <row r="188" spans="1:1025">
       <c r="A188" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C188" s="14">
         <v>2</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>143</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H188"/>
     </row>
     <row r="189" spans="1:1025">
       <c r="A189" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C189" s="14">
         <v>2</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G189" s="30" t="s">
-        <v>143</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H189"/>
+    </row>
+    <row r="190" spans="1:1025">
+      <c r="H190"/>
+    </row>
+    <row r="191" spans="1:1025">
+      <c r="H191"/>
+    </row>
+    <row r="192" spans="1:1025">
+      <c r="H192"/>
+    </row>
+    <row r="193" spans="8:8">
+      <c r="H193"/>
+    </row>
+    <row r="194" spans="8:8">
+      <c r="H194"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -51001,7 +51025,7 @@
       <selection sqref="A1:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1">
@@ -60175,7 +60199,7 @@
       <selection sqref="A1:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1">
@@ -69349,7 +69373,7 @@
       <selection sqref="A1:XFD83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1">
@@ -78746,10 +78770,10 @@
   <dimension ref="A1:AK83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD83"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1">

--- a/CP03ISSM/Omaha_Cal_Info_CP03ISSM_00002.xlsx
+++ b/CP03ISSM/Omaha_Cal_Info_CP03ISSM_00002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2745" windowWidth="34560" windowHeight="16440" tabRatio="766"/>
+    <workbookView xWindow="300" yWindow="2745" windowWidth="29040" windowHeight="16440" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -611,9 +611,6 @@
     <t xml:space="preserve">[0.00000020672067901, 0.000000201048697017, 0.000000213406764687, 0.000000214645504018, 0.000000223204905758, 0.000000217869562687, 0.000000207817888546] </t>
   </si>
   <si>
-    <t xml:space="preserve">[2147422261.2, 2147299457.8, 2146975200.2, 2147286017.4, 2148022206.3, 2147855559, 2146961741.7] </t>
-  </si>
-  <si>
     <t>[189.64, 190.43, 191.23, 192.03, 192.83, 193.62, 194.42, 195.22, 196.02, 196.82, 197.62, 198.42, 199.22, 200.01, 200.81, 201.61, 202.41, 203.21, 204.01, 204.81, 205.61, 206.41, 207.22, 208.02, 208.82, 209.62, 210.42, 211.22, 212.02, 212.82, 213.62, 214.43, 215.23, 216.03, 216.83, 217.63, 218.44, 219.24, 220.04, 220.84, 221.65, 222.45, 223.25, 224.06, 224.86, 225.66, 226.46, 227.27, 228.07, 228.87, 229.68, 230.48, 231.29, 232.09, 232.89, 233.7, 234.5, 235.31, 236.11, 236.91, 237.72, 238.52, 239.33, 240.13, 240.94, 241.74, 242.55, 243.35, 244.15, 244.96, 245.76, 246.57, 247.37, 248.18, 248.98, 249.79, 250.59, 251.4, 252.2, 253.01, 253.81, 254.62, 255.42, 256.23, 257.04, 257.84, 258.65, 259.45, 260.26, 261.06, 261.87, 262.67, 263.48, 264.28, 265.09, 265.89, 266.7, 267.51, 268.31, 269.12, 269.92, 270.73, 271.53, 272.34, 273.14, 273.95, 274.75, 275.56, 276.36, 277.17, 277.97, 278.78, 279.58, 280.39, 281.19, 282, 282.8, 283.61, 284.41, 285.22, 286.02, 286.83, 287.63, 288.44, 289.24, 290.05, 290.85, 291.66, 292.46, 293.26, 294.07, 294.87, 295.68, 296.48, 297.28, 298.09, 298.89, 299.7, 300.5, 301.3, 302.11, 302.91, 303.71, 304.52, 305.32, 306.12, 306.93, 307.73, 308.53, 309.33, 310.14, 310.94, 311.74, 312.54, 313.35, 314.15, 314.95, 315.75, 316.55, 317.36, 318.16, 318.96, 319.76, 320.56, 321.36, 322.16, 322.96, 323.76, 324.57, 325.37, 326.17, 326.97, 327.77, 328.57, 329.37, 330.17, 330.96, 331.76, 332.56, 333.36, 334.16, 334.96, 335.76, 336.56, 337.35, 338.15, 338.95, 339.75, 340.55, 341.34, 342.14, 342.94, 343.73, 344.53, 345.33, 346.12, 346.92, 347.71, 348.51, 349.31, 350.1, 350.9, 351.69, 352.49, 353.28, 354.08, 354.87, 355.66, 356.46, 357.25, 358.04, 358.84, 359.63, 360.42, 361.22, 362.01, 362.8, 363.59, 364.38, 365.17, 365.97, 366.76, 367.55, 368.34, 369.13, 369.92, 370.71, 371.5, 372.29, 373.08, 373.86, 374.65, 375.44, 376.23, 377.02, 377.8, 378.59, 379.38, 380.17, 380.95, 381.74, 382.52, 383.31, 384.1, 384.88, 385.67, 386.45, 387.24, 388.02, 388.8, 389.59, 390.37, 391.15, 391.94, 392.72, 393.5]</t>
   </si>
   <si>
@@ -643,6 +640,9 @@
   <si>
     <t>70°53.1167'W</t>
   </si>
+  <si>
+    <t xml:space="preserve">[2147422261.2, 2147299457.8, 2146975200.2, 2147286017.4, 2148022206.3, 2147855559.0, 2146961741.7] </t>
+  </si>
 </sst>
 </file>
 
@@ -651,7 +651,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -705,10 +705,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1480,11 +1482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1499,7 +1501,7 @@
     <col min="12" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="9" customFormat="1" ht="38.25">
+    <row r="1" spans="1:1025" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" s="24" customFormat="1">
+    <row r="2" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
@@ -1552,10 +1554,10 @@
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="I2" s="10">
         <v>97</v>
@@ -2596,13 +2598,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
@@ -2614,7 +2616,7 @@
     <col min="8" max="1025" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="16" customFormat="1" ht="25.5">
+    <row r="1" spans="1:1024" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2637,7 +2639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1024">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -3663,9 +3665,9 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>156</v>
@@ -4699,7 +4701,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="5" spans="1:1024" s="27" customFormat="1" ht="12.75">
+    <row r="5" spans="1:1024" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>153</v>
       </c>
@@ -4710,10 +4712,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:1024">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -5753,7 +5755,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
@@ -6793,7 +6795,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
@@ -7833,7 +7835,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
@@ -8873,7 +8875,7 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -9913,7 +9915,7 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
@@ -10953,7 +10955,7 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
@@ -11993,7 +11995,7 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
@@ -13033,7 +13035,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
@@ -14073,7 +14075,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -15099,7 +15101,7 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" s="27" customFormat="1" ht="12.75">
+    <row r="17" spans="1:1024" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>154</v>
       </c>
@@ -15110,10 +15112,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:1024">
+    <row r="19" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>29</v>
       </c>
@@ -16149,7 +16151,7 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024">
+    <row r="20" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -17175,7 +17177,7 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024">
+    <row r="21" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>31</v>
       </c>
@@ -18212,7 +18214,7 @@
       <c r="AMI21"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024">
+    <row r="22" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>31</v>
       </c>
@@ -19249,7 +19251,7 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024">
+    <row r="23" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -20274,7 +20276,7 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024">
+    <row r="24" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>32</v>
       </c>
@@ -21311,7 +21313,7 @@
       <c r="AMI24"/>
       <c r="AMJ24"/>
     </row>
-    <row r="25" spans="1:1024">
+    <row r="25" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
@@ -22348,7 +22350,7 @@
       <c r="AMI25"/>
       <c r="AMJ25"/>
     </row>
-    <row r="26" spans="1:1024">
+    <row r="26" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -23373,7 +23375,7 @@
       <c r="AMI26"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024">
+    <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
@@ -24410,7 +24412,7 @@
       <c r="AMI27"/>
       <c r="AMJ27"/>
     </row>
-    <row r="28" spans="1:1024">
+    <row r="28" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>33</v>
       </c>
@@ -25447,7 +25449,7 @@
       <c r="AMI28"/>
       <c r="AMJ28"/>
     </row>
-    <row r="29" spans="1:1024">
+    <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>33</v>
       </c>
@@ -26484,7 +26486,7 @@
       <c r="AMI29"/>
       <c r="AMJ29"/>
     </row>
-    <row r="30" spans="1:1024">
+    <row r="30" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>33</v>
       </c>
@@ -27521,7 +27523,7 @@
       <c r="AMI30"/>
       <c r="AMJ30"/>
     </row>
-    <row r="31" spans="1:1024">
+    <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>33</v>
       </c>
@@ -28558,7 +28560,7 @@
       <c r="AMI31"/>
       <c r="AMJ31"/>
     </row>
-    <row r="32" spans="1:1024">
+    <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>33</v>
       </c>
@@ -29595,7 +29597,7 @@
       <c r="AMI32"/>
       <c r="AMJ32"/>
     </row>
-    <row r="33" spans="1:1024">
+    <row r="33" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>33</v>
       </c>
@@ -30634,7 +30636,7 @@
       <c r="AMI33"/>
       <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024">
+    <row r="34" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -31659,7 +31661,7 @@
       <c r="AMI34"/>
       <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024">
+    <row r="35" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>41</v>
       </c>
@@ -32696,7 +32698,7 @@
       <c r="AMI35"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024">
+    <row r="36" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>41</v>
       </c>
@@ -33733,7 +33735,7 @@
       <c r="AMI36"/>
       <c r="AMJ36"/>
     </row>
-    <row r="37" spans="1:1024">
+    <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>41</v>
       </c>
@@ -34770,7 +34772,7 @@
       <c r="AMI37"/>
       <c r="AMJ37"/>
     </row>
-    <row r="38" spans="1:1024">
+    <row r="38" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>41</v>
       </c>
@@ -35807,7 +35809,7 @@
       <c r="AMI38"/>
       <c r="AMJ38"/>
     </row>
-    <row r="39" spans="1:1024">
+    <row r="39" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>41</v>
       </c>
@@ -36844,7 +36846,7 @@
       <c r="AMI39"/>
       <c r="AMJ39"/>
     </row>
-    <row r="40" spans="1:1024">
+    <row r="40" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>41</v>
       </c>
@@ -37881,7 +37883,7 @@
       <c r="AMI40"/>
       <c r="AMJ40"/>
     </row>
-    <row r="41" spans="1:1024">
+    <row r="41" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>41</v>
       </c>
@@ -38920,7 +38922,7 @@
       <c r="AMI41"/>
       <c r="AMJ41"/>
     </row>
-    <row r="42" spans="1:1024">
+    <row r="42" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -39945,7 +39947,7 @@
       <c r="AMI42"/>
       <c r="AMJ42"/>
     </row>
-    <row r="43" spans="1:1024">
+    <row r="43" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>42</v>
       </c>
@@ -40982,7 +40984,7 @@
       <c r="AMI43"/>
       <c r="AMJ43"/>
     </row>
-    <row r="44" spans="1:1024">
+    <row r="44" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>42</v>
       </c>
@@ -42019,7 +42021,7 @@
       <c r="AMI44"/>
       <c r="AMJ44"/>
     </row>
-    <row r="45" spans="1:1024">
+    <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>42</v>
       </c>
@@ -43057,7 +43059,7 @@
       <c r="AMI45"/>
       <c r="AMJ45"/>
     </row>
-    <row r="46" spans="1:1024">
+    <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>42</v>
       </c>
@@ -44095,7 +44097,7 @@
       <c r="AMI46"/>
       <c r="AMJ46"/>
     </row>
-    <row r="47" spans="1:1024">
+    <row r="47" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>42</v>
       </c>
@@ -45133,7 +45135,7 @@
       <c r="AMI47"/>
       <c r="AMJ47"/>
     </row>
-    <row r="48" spans="1:1024">
+    <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>42</v>
       </c>
@@ -46171,7 +46173,7 @@
       <c r="AMI48"/>
       <c r="AMJ48"/>
     </row>
-    <row r="49" spans="1:1024">
+    <row r="49" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>42</v>
       </c>
@@ -47209,7 +47211,7 @@
       <c r="AMI49"/>
       <c r="AMJ49"/>
     </row>
-    <row r="50" spans="1:1024" s="20" customFormat="1" ht="12.75">
+    <row r="50" spans="1:1024" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>42</v>
       </c>
@@ -47229,7 +47231,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:1024">
+    <row r="51" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -47238,7 +47240,7 @@
       <c r="F51" s="29"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:1024">
+    <row r="52" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>51</v>
       </c>
@@ -47259,7 +47261,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:1024">
+    <row r="53" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>51</v>
       </c>
@@ -47280,7 +47282,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:1024">
+    <row r="54" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>51</v>
       </c>
@@ -47301,7 +47303,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:1024">
+    <row r="55" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>51</v>
       </c>
@@ -47322,7 +47324,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:1024">
+    <row r="56" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>51</v>
       </c>
@@ -47343,7 +47345,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:1024">
+    <row r="57" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>51</v>
       </c>
@@ -47364,7 +47366,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:1024">
+    <row r="58" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>51</v>
       </c>
@@ -47385,7 +47387,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:1024">
+    <row r="59" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>51</v>
       </c>
@@ -47406,7 +47408,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:1024">
+    <row r="60" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -47415,7 +47417,7 @@
       <c r="F60" s="29"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:1024">
+    <row r="61" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>52</v>
       </c>
@@ -47436,7 +47438,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:1024">
+    <row r="62" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>52</v>
       </c>
@@ -47457,7 +47459,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:1024">
+    <row r="63" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>52</v>
       </c>
@@ -47478,7 +47480,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:1024">
+    <row r="64" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>52</v>
       </c>
@@ -47499,7 +47501,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>52</v>
       </c>
@@ -47520,7 +47522,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>52</v>
       </c>
@@ -47541,7 +47543,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>52</v>
       </c>
@@ -47564,7 +47566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>52</v>
       </c>
@@ -47587,7 +47589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>52</v>
       </c>
@@ -47610,7 +47612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>52</v>
       </c>
@@ -47633,7 +47635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -47642,7 +47644,7 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>63</v>
       </c>
@@ -47663,7 +47665,7 @@
       </c>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>63</v>
       </c>
@@ -47684,7 +47686,7 @@
       </c>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>63</v>
       </c>
@@ -47705,7 +47707,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>63</v>
       </c>
@@ -47726,7 +47728,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>63</v>
       </c>
@@ -47747,7 +47749,7 @@
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>63</v>
       </c>
@@ -47768,7 +47770,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>63</v>
       </c>
@@ -47789,7 +47791,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>63</v>
       </c>
@@ -47810,7 +47812,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>63</v>
       </c>
@@ -47831,7 +47833,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>63</v>
       </c>
@@ -47852,7 +47854,7 @@
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>63</v>
       </c>
@@ -47873,7 +47875,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>63</v>
       </c>
@@ -47895,7 +47897,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>63</v>
       </c>
@@ -47917,7 +47919,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>63</v>
       </c>
@@ -47939,7 +47941,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>63</v>
       </c>
@@ -47960,7 +47962,7 @@
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>63</v>
       </c>
@@ -47981,7 +47983,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>63</v>
       </c>
@@ -48002,7 +48004,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>63</v>
       </c>
@@ -48023,7 +48025,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>63</v>
       </c>
@@ -48044,7 +48046,7 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>63</v>
       </c>
@@ -48065,7 +48067,7 @@
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>63</v>
       </c>
@@ -48086,7 +48088,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>63</v>
       </c>
@@ -48107,7 +48109,7 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>63</v>
       </c>
@@ -48128,7 +48130,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>63</v>
       </c>
@@ -48149,7 +48151,7 @@
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -48158,7 +48160,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>86</v>
       </c>
@@ -48179,7 +48181,7 @@
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>86</v>
       </c>
@@ -48200,7 +48202,7 @@
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>86</v>
       </c>
@@ -48221,7 +48223,7 @@
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>86</v>
       </c>
@@ -48242,7 +48244,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>86</v>
       </c>
@@ -48263,7 +48265,7 @@
       </c>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>86</v>
       </c>
@@ -48284,7 +48286,7 @@
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>86</v>
       </c>
@@ -48305,7 +48307,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>86</v>
       </c>
@@ -48326,7 +48328,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>86</v>
       </c>
@@ -48347,7 +48349,7 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>86</v>
       </c>
@@ -48368,7 +48370,7 @@
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>86</v>
       </c>
@@ -48389,7 +48391,7 @@
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>86</v>
       </c>
@@ -48410,7 +48412,7 @@
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>86</v>
       </c>
@@ -48431,7 +48433,7 @@
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>86</v>
       </c>
@@ -48452,7 +48454,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>86</v>
       </c>
@@ -48473,7 +48475,7 @@
       </c>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>86</v>
       </c>
@@ -48494,7 +48496,7 @@
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>86</v>
       </c>
@@ -48515,7 +48517,7 @@
       </c>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>86</v>
       </c>
@@ -48536,7 +48538,7 @@
       </c>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>86</v>
       </c>
@@ -48557,7 +48559,7 @@
       </c>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>86</v>
       </c>
@@ -48578,7 +48580,7 @@
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>86</v>
       </c>
@@ -48599,7 +48601,7 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>86</v>
       </c>
@@ -48620,7 +48622,7 @@
       </c>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>86</v>
       </c>
@@ -48641,7 +48643,7 @@
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>86</v>
       </c>
@@ -48662,7 +48664,7 @@
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -48671,7 +48673,7 @@
       <c r="F121" s="29"/>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>87</v>
       </c>
@@ -48692,7 +48694,7 @@
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>87</v>
       </c>
@@ -48713,7 +48715,7 @@
       </c>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>87</v>
       </c>
@@ -48734,7 +48736,7 @@
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -48743,7 +48745,7 @@
       <c r="F125" s="29"/>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>89</v>
       </c>
@@ -48764,7 +48766,7 @@
       </c>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>89</v>
       </c>
@@ -48785,7 +48787,7 @@
       </c>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>89</v>
       </c>
@@ -48806,7 +48808,7 @@
       </c>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -48815,7 +48817,7 @@
       <c r="F129"/>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
         <v>169</v>
       </c>
@@ -48838,7 +48840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
         <v>169</v>
       </c>
@@ -48861,7 +48863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
         <v>169</v>
       </c>
@@ -48882,7 +48884,7 @@
       </c>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
         <v>169</v>
       </c>
@@ -48899,11 +48901,11 @@
         <v>93</v>
       </c>
       <c r="F133" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
         <v>169</v>
       </c>
@@ -48920,11 +48922,11 @@
         <v>94</v>
       </c>
       <c r="F134" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>169</v>
       </c>
@@ -48941,11 +48943,11 @@
         <v>95</v>
       </c>
       <c r="F135" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
         <v>169</v>
       </c>
@@ -48962,11 +48964,11 @@
         <v>96</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="31"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -48975,7 +48977,7 @@
       <c r="F137"/>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
         <v>170</v>
       </c>
@@ -48996,7 +48998,7 @@
       </c>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
         <v>170</v>
       </c>
@@ -49013,11 +49015,11 @@
         <v>98</v>
       </c>
       <c r="F139" s="28" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
         <v>170</v>
       </c>
@@ -49038,7 +49040,7 @@
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -49047,7 +49049,7 @@
       <c r="F141" s="29"/>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>100</v>
       </c>
@@ -49068,7 +49070,7 @@
       </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>100</v>
       </c>
@@ -49089,7 +49091,7 @@
       </c>
       <c r="G143"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>100</v>
       </c>
@@ -49110,7 +49112,7 @@
       </c>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>100</v>
       </c>
@@ -49131,7 +49133,7 @@
       </c>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>100</v>
       </c>
@@ -49152,7 +49154,7 @@
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>100</v>
       </c>
@@ -49173,7 +49175,7 @@
       </c>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>100</v>
       </c>
@@ -49194,7 +49196,7 @@
       </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -49203,7 +49205,7 @@
       <c r="F149"/>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>106</v>
       </c>
@@ -49214,7 +49216,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E150" s="14" t="s">
         <v>107</v>
@@ -49224,7 +49226,7 @@
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>106</v>
       </c>
@@ -49235,7 +49237,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E151" s="14" t="s">
         <v>108</v>
@@ -49245,7 +49247,7 @@
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>106</v>
       </c>
@@ -49256,7 +49258,7 @@
         <v>2</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E152" s="14" t="s">
         <v>109</v>
@@ -49266,7 +49268,7 @@
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>106</v>
       </c>
@@ -49277,7 +49279,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E153" s="14" t="s">
         <v>110</v>
@@ -49287,7 +49289,7 @@
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>106</v>
       </c>
@@ -49298,7 +49300,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E154" s="14" t="s">
         <v>111</v>
@@ -49308,7 +49310,7 @@
       </c>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>106</v>
       </c>
@@ -49319,7 +49321,7 @@
         <v>2</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E155" s="14" t="s">
         <v>112</v>
@@ -49331,7 +49333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>106</v>
       </c>
@@ -49342,7 +49344,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E156" s="14" t="s">
         <v>113</v>
@@ -49352,7 +49354,7 @@
       </c>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>106</v>
       </c>
@@ -49363,7 +49365,7 @@
         <v>2</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E157" s="14" t="s">
         <v>114</v>
@@ -49375,7 +49377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>106</v>
       </c>
@@ -49386,7 +49388,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E158" s="14" t="s">
         <v>115</v>
@@ -49396,7 +49398,7 @@
       </c>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>106</v>
       </c>
@@ -49407,7 +49409,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E159" s="14" t="s">
         <v>116</v>
@@ -49417,7 +49419,7 @@
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>106</v>
       </c>
@@ -49428,7 +49430,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E160" s="14" t="s">
         <v>117</v>
@@ -49438,7 +49440,7 @@
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
         <v>106</v>
       </c>
@@ -49449,7 +49451,7 @@
         <v>2</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E161" s="14" t="s">
         <v>118</v>
@@ -49459,7 +49461,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>106</v>
       </c>
@@ -49470,7 +49472,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>119</v>
@@ -49480,7 +49482,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>106</v>
       </c>
@@ -49491,7 +49493,7 @@
         <v>2</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E163" s="14" t="s">
         <v>120</v>
@@ -49501,7 +49503,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>106</v>
       </c>
@@ -49512,7 +49514,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E164" s="14" t="s">
         <v>121</v>
@@ -49523,7 +49525,7 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>106</v>
       </c>
@@ -49534,7 +49536,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E165" s="14" t="s">
         <v>122</v>
@@ -49544,7 +49546,7 @@
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>106</v>
       </c>
@@ -49555,7 +49557,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E166" s="14" t="s">
         <v>123</v>
@@ -49565,7 +49567,7 @@
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>106</v>
       </c>
@@ -49576,7 +49578,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E167" s="14" t="s">
         <v>124</v>
@@ -49586,7 +49588,7 @@
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -49595,7 +49597,7 @@
       <c r="F168"/>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
         <v>125</v>
       </c>
@@ -49616,7 +49618,7 @@
       </c>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>125</v>
       </c>
@@ -49637,7 +49639,7 @@
       </c>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
         <v>125</v>
       </c>
@@ -49658,7 +49660,7 @@
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>125</v>
       </c>
@@ -49679,7 +49681,7 @@
       </c>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
         <v>125</v>
       </c>
@@ -49702,7 +49704,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
         <v>125</v>
       </c>
@@ -49726,7 +49728,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
         <v>125</v>
       </c>
@@ -49750,7 +49752,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
         <v>125</v>
       </c>
@@ -49774,7 +49776,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:1025">
+    <row r="177" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -49782,7 +49784,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:1025" s="24" customFormat="1">
+    <row r="178" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E178" s="17"/>
       <c r="F178" s="17"/>
       <c r="G178" s="30" t="s">
@@ -50813,7 +50815,7 @@
       <c r="AMJ178" s="17"/>
       <c r="AMK178" s="17"/>
     </row>
-    <row r="179" spans="1:1025">
+    <row r="179" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -50821,7 +50823,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:1025">
+    <row r="180" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>132</v>
       </c>
@@ -50839,7 +50841,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:1025">
+    <row r="181" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
         <v>135</v>
       </c>
@@ -50857,7 +50859,7 @@
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:1025">
+    <row r="182" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
         <v>137</v>
       </c>
@@ -50875,7 +50877,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:1025">
+    <row r="183" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -50883,7 +50885,7 @@
       <c r="G183" s="30"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:1025">
+    <row r="184" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
         <v>139</v>
       </c>
@@ -50901,7 +50903,7 @@
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:1025">
+    <row r="185" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
         <v>142</v>
       </c>
@@ -50919,7 +50921,7 @@
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:1025">
+    <row r="186" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
         <v>144</v>
       </c>
@@ -50937,7 +50939,7 @@
       </c>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:1025">
+    <row r="187" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
         <v>146</v>
       </c>
@@ -50955,7 +50957,7 @@
       </c>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:1025">
+    <row r="188" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
         <v>148</v>
       </c>
@@ -50973,7 +50975,7 @@
       </c>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:1025">
+    <row r="189" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
         <v>150</v>
       </c>
@@ -50991,19 +50993,19 @@
       </c>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:1025">
+    <row r="190" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:1025">
+    <row r="191" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:1025">
+    <row r="192" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="H192"/>
     </row>
-    <row r="193" spans="8:8">
+    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H193"/>
     </row>
-    <row r="194" spans="8:8">
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H194"/>
     </row>
   </sheetData>
@@ -51025,9 +51027,9 @@
       <selection sqref="A1:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-0.23630799999999999</v>
       </c>
@@ -51140,7 +51142,7 @@
         <v>0.102089</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-0.219112</v>
       </c>
@@ -51253,7 +51255,7 @@
         <v>9.0979000000000004E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.192574</v>
       </c>
@@ -51366,7 +51368,7 @@
         <v>7.4718999999999994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.162712</v>
       </c>
@@ -51479,7 +51481,7 @@
         <v>5.969E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.13741800000000001</v>
       </c>
@@ -51592,7 +51594,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.115784</v>
       </c>
@@ -51705,7 +51707,7 @@
         <v>3.5348999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.10087599999999999</v>
       </c>
@@ -51818,7 +51820,7 @@
         <v>3.0356999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-8.9899000000000007E-2</v>
       </c>
@@ -51931,7 +51933,7 @@
         <v>2.6417E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-8.2663E-2</v>
       </c>
@@ -52044,7 +52046,7 @@
         <v>2.2605E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-7.5933E-2</v>
       </c>
@@ -52157,7 +52159,7 @@
         <v>1.8262E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-7.2041999999999995E-2</v>
       </c>
@@ -52270,7 +52272,7 @@
         <v>1.7717E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-6.7464999999999997E-2</v>
       </c>
@@ -52383,7 +52385,7 @@
         <v>1.6542999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-6.4418000000000003E-2</v>
       </c>
@@ -52496,7 +52498,7 @@
         <v>1.4557E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-6.0699999999999997E-2</v>
       </c>
@@ -52609,7 +52611,7 @@
         <v>1.4468E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-5.6932999999999997E-2</v>
       </c>
@@ -52722,7 +52724,7 @@
         <v>1.3155E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-5.5059999999999998E-2</v>
       </c>
@@ -52835,7 +52837,7 @@
         <v>1.2047E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-5.2786E-2</v>
       </c>
@@ -52948,7 +52950,7 @@
         <v>1.1903E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-5.0230999999999998E-2</v>
       </c>
@@ -53061,7 +53063,7 @@
         <v>1.1834000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-4.8555000000000001E-2</v>
       </c>
@@ -53174,7 +53176,7 @@
         <v>9.7350000000000006E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-4.6621000000000003E-2</v>
       </c>
@@ -53287,7 +53289,7 @@
         <v>1.0331E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-4.4781000000000001E-2</v>
       </c>
@@ -53400,7 +53402,7 @@
         <v>9.5359999999999993E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-4.2777000000000003E-2</v>
       </c>
@@ -53513,7 +53515,7 @@
         <v>8.9219999999999994E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-4.1693000000000001E-2</v>
       </c>
@@ -53626,7 +53628,7 @@
         <v>8.6110000000000006E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-4.0076000000000001E-2</v>
       </c>
@@ -53739,7 +53741,7 @@
         <v>8.0199999999999994E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-3.8706999999999998E-2</v>
       </c>
@@ -53852,7 +53854,7 @@
         <v>7.5820000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.7692999999999997E-2</v>
       </c>
@@ -53965,7 +53967,7 @@
         <v>7.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-3.6488E-2</v>
       </c>
@@ -54078,7 +54080,7 @@
         <v>6.9959999999999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.5685000000000001E-2</v>
       </c>
@@ -54191,7 +54193,7 @@
         <v>6.9870000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-3.4793999999999999E-2</v>
       </c>
@@ -54304,7 +54306,7 @@
         <v>6.8120000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3.3947999999999999E-2</v>
       </c>
@@ -54417,7 +54419,7 @@
         <v>6.3699999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3.3202000000000002E-2</v>
       </c>
@@ -54530,7 +54532,7 @@
         <v>5.9709999999999997E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.2448999999999999E-2</v>
       </c>
@@ -54643,7 +54645,7 @@
         <v>5.7369999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3.1661000000000002E-2</v>
       </c>
@@ -54756,7 +54758,7 @@
         <v>5.8729999999999997E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-3.1063E-2</v>
       </c>
@@ -54869,7 +54871,7 @@
         <v>5.5519999999999996E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-3.0332000000000001E-2</v>
       </c>
@@ -54982,7 +54984,7 @@
         <v>5.4149999999999997E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-2.9614999999999999E-2</v>
       </c>
@@ -55095,7 +55097,7 @@
         <v>5.1799999999999997E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-2.8750000000000001E-2</v>
       </c>
@@ -55208,7 +55210,7 @@
         <v>4.8329999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-2.8122000000000001E-2</v>
       </c>
@@ -55321,7 +55323,7 @@
         <v>4.4180000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2.7635E-2</v>
       </c>
@@ -55434,7 +55436,7 @@
         <v>4.352E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-2.7272000000000001E-2</v>
       </c>
@@ -55547,7 +55549,7 @@
         <v>4.0549999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-2.6905999999999999E-2</v>
       </c>
@@ -55660,7 +55662,7 @@
         <v>4.0980000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-2.6765000000000001E-2</v>
       </c>
@@ -55773,7 +55775,7 @@
         <v>4.2370000000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-2.6817000000000001E-2</v>
       </c>
@@ -55886,7 +55888,7 @@
         <v>4.0179999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-2.6887000000000001E-2</v>
       </c>
@@ -55999,7 +56001,7 @@
         <v>4.3420000000000004E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-2.6966E-2</v>
       </c>
@@ -56112,7 +56114,7 @@
         <v>4.5149999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-2.7814999999999999E-2</v>
       </c>
@@ -56225,7 +56227,7 @@
         <v>5.5440000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-2.7373999999999999E-2</v>
       </c>
@@ -56338,7 +56340,7 @@
         <v>5.3959999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-2.7095000000000001E-2</v>
       </c>
@@ -56451,7 +56453,7 @@
         <v>5.4349999999999997E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-2.6783999999999999E-2</v>
       </c>
@@ -56564,7 +56566,7 @@
         <v>5.2300000000000003E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-2.6502999999999999E-2</v>
       </c>
@@ -56677,7 +56679,7 @@
         <v>5.097E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.6282E-2</v>
       </c>
@@ -56790,7 +56792,7 @@
         <v>5.0029999999999996E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.6155999999999999E-2</v>
       </c>
@@ -56903,7 +56905,7 @@
         <v>4.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.5994E-2</v>
       </c>
@@ -57016,7 +57018,7 @@
         <v>4.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.5885999999999999E-2</v>
       </c>
@@ -57129,7 +57131,7 @@
         <v>4.7889999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.5662000000000001E-2</v>
       </c>
@@ -57242,7 +57244,7 @@
         <v>4.7590000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.5572999999999999E-2</v>
       </c>
@@ -57355,7 +57357,7 @@
         <v>4.7359999999999998E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.5590999999999999E-2</v>
       </c>
@@ -57468,7 +57470,7 @@
         <v>4.5519999999999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.5419000000000001E-2</v>
       </c>
@@ -57581,7 +57583,7 @@
         <v>4.4910000000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.5249000000000001E-2</v>
       </c>
@@ -57694,7 +57696,7 @@
         <v>4.6649999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-2.5117E-2</v>
       </c>
@@ -57807,7 +57809,7 @@
         <v>4.6480000000000002E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-2.5079000000000001E-2</v>
       </c>
@@ -57920,7 +57922,7 @@
         <v>4.5989999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-2.5096E-2</v>
       </c>
@@ -58033,7 +58035,7 @@
         <v>4.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-2.4931999999999999E-2</v>
       </c>
@@ -58146,7 +58148,7 @@
         <v>4.4079999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-2.4843E-2</v>
       </c>
@@ -58259,7 +58261,7 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-2.4686E-2</v>
       </c>
@@ -58372,7 +58374,7 @@
         <v>4.0870000000000004E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-2.4313999999999999E-2</v>
       </c>
@@ -58485,7 +58487,7 @@
         <v>3.8549999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-2.3865999999999998E-2</v>
       </c>
@@ -58598,7 +58600,7 @@
         <v>3.565E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-2.3199999999999998E-2</v>
       </c>
@@ -58711,7 +58713,7 @@
         <v>3.4580000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-2.2863999999999999E-2</v>
       </c>
@@ -58824,7 +58826,7 @@
         <v>3.2950000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-2.2699E-2</v>
       </c>
@@ -58937,7 +58939,7 @@
         <v>3.3089999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-2.2542E-2</v>
       </c>
@@ -59050,7 +59052,7 @@
         <v>3.0799999999999998E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-2.2339999999999999E-2</v>
       </c>
@@ -59163,7 +59165,7 @@
         <v>2.8649999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-2.2103999999999999E-2</v>
       </c>
@@ -59276,7 +59278,7 @@
         <v>2.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-2.2164E-2</v>
       </c>
@@ -59389,7 +59391,7 @@
         <v>2.9369999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-2.2291999999999999E-2</v>
       </c>
@@ -59502,7 +59504,7 @@
         <v>2.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-2.2556E-2</v>
       </c>
@@ -59615,7 +59617,7 @@
         <v>3.0760000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-2.2882E-2</v>
       </c>
@@ -59728,7 +59730,7 @@
         <v>3.0920000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-2.3435999999999998E-2</v>
       </c>
@@ -59841,7 +59843,7 @@
         <v>3.496E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-2.3737000000000001E-2</v>
       </c>
@@ -59954,7 +59956,7 @@
         <v>3.3709999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-2.3903000000000001E-2</v>
       </c>
@@ -60067,7 +60069,7 @@
         <v>3.372E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-2.4138E-2</v>
       </c>
@@ -60199,9 +60201,9 @@
       <selection sqref="A1:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-4.5019999999999998E-2</v>
       </c>
@@ -60314,7 +60316,7 @@
         <v>2.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4.9313999999999997E-2</v>
       </c>
@@ -60427,7 +60429,7 @@
         <v>3.0019999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-5.3048999999999999E-2</v>
       </c>
@@ -60540,7 +60542,7 @@
         <v>5.1050000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.9300999999999998E-2</v>
       </c>
@@ -60653,7 +60655,7 @@
         <v>6.0299999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-5.1970000000000002E-2</v>
       </c>
@@ -60766,7 +60768,7 @@
         <v>6.7450000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-5.2373000000000003E-2</v>
       </c>
@@ -60879,7 +60881,7 @@
         <v>7.8180000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-5.1167999999999998E-2</v>
       </c>
@@ -60992,7 +60994,7 @@
         <v>7.8989999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-5.0535999999999998E-2</v>
       </c>
@@ -61105,7 +61107,7 @@
         <v>7.9380000000000006E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-5.0341999999999998E-2</v>
       </c>
@@ -61218,7 +61220,7 @@
         <v>6.6880000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4.9499000000000001E-2</v>
       </c>
@@ -61331,7 +61333,7 @@
         <v>7.3499999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4.8509999999999998E-2</v>
       </c>
@@ -61444,7 +61446,7 @@
         <v>6.1539999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.6917E-2</v>
       </c>
@@ -61557,7 +61559,7 @@
         <v>6.352E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.6531999999999997E-2</v>
       </c>
@@ -61670,7 +61672,7 @@
         <v>6.4970000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-4.5048999999999999E-2</v>
       </c>
@@ -61783,7 +61785,7 @@
         <v>5.2249999999999996E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-4.4132999999999999E-2</v>
       </c>
@@ -61896,7 +61898,7 @@
         <v>5.653E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-4.3455000000000001E-2</v>
       </c>
@@ -62009,7 +62011,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-4.1370999999999998E-2</v>
       </c>
@@ -62122,7 +62124,7 @@
         <v>4.9880000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-4.0131E-2</v>
       </c>
@@ -62235,7 +62237,7 @@
         <v>5.202E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.9669000000000003E-2</v>
       </c>
@@ -62348,7 +62350,7 @@
         <v>4.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.7501E-2</v>
       </c>
@@ -62461,7 +62463,7 @@
         <v>4.3810000000000003E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.7622000000000003E-2</v>
       </c>
@@ -62574,7 +62576,7 @@
         <v>4.7200000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-3.6163000000000001E-2</v>
       </c>
@@ -62687,7 +62689,7 @@
         <v>3.813E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-3.4867000000000002E-2</v>
       </c>
@@ -62800,7 +62802,7 @@
         <v>4.548E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-3.4709999999999998E-2</v>
       </c>
@@ -62913,7 +62915,7 @@
         <v>3.6449999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-3.3486000000000002E-2</v>
       </c>
@@ -63026,7 +63028,7 @@
         <v>3.4849999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.2210000000000003E-2</v>
       </c>
@@ -63139,7 +63141,7 @@
         <v>3.5890000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-3.1989999999999998E-2</v>
       </c>
@@ -63252,7 +63254,7 @@
         <v>3.235E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.0970999999999999E-2</v>
       </c>
@@ -63365,7 +63367,7 @@
         <v>3.228E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-3.0700999999999999E-2</v>
       </c>
@@ -63478,7 +63480,7 @@
         <v>3.1830000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-2.9828E-2</v>
       </c>
@@ -63591,7 +63593,7 @@
         <v>2.6250000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-2.8743999999999999E-2</v>
       </c>
@@ -63704,7 +63706,7 @@
         <v>2.7829999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-2.8386999999999999E-2</v>
       </c>
@@ -63817,7 +63819,7 @@
         <v>2.4889999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-2.7272999999999999E-2</v>
       </c>
@@ -63930,7 +63932,7 @@
         <v>1.864E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2.6145999999999999E-2</v>
       </c>
@@ -64043,7 +64045,7 @@
         <v>2.4090000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-2.5887E-2</v>
       </c>
@@ -64156,7 +64158,7 @@
         <v>1.7340000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-2.4691000000000001E-2</v>
       </c>
@@ -64269,7 +64271,7 @@
         <v>1.5410000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-2.4195999999999999E-2</v>
       </c>
@@ -64382,7 +64384,7 @@
         <v>1.6299999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-2.3730000000000001E-2</v>
       </c>
@@ -64495,7 +64497,7 @@
         <v>1.101E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2.2949000000000001E-2</v>
       </c>
@@ -64608,7 +64610,7 @@
         <v>1.2110000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-2.2709E-2</v>
       </c>
@@ -64721,7 +64723,7 @@
         <v>1.2620000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-2.2540000000000001E-2</v>
       </c>
@@ -64834,7 +64836,7 @@
         <v>9.1399999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-2.2297000000000001E-2</v>
       </c>
@@ -64947,7 +64949,7 @@
         <v>1.2310000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-2.2387000000000001E-2</v>
       </c>
@@ -65060,7 +65062,7 @@
         <v>1.1559999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-2.2540000000000001E-2</v>
       </c>
@@ -65173,7 +65175,7 @@
         <v>1.1820000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-2.2654000000000001E-2</v>
       </c>
@@ -65286,7 +65288,7 @@
         <v>1.477E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-2.4153000000000001E-2</v>
       </c>
@@ -65399,7 +65401,7 @@
         <v>2.016E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-2.3911000000000002E-2</v>
       </c>
@@ -65512,7 +65514,7 @@
         <v>2.0110000000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-2.3597E-2</v>
       </c>
@@ -65625,7 +65627,7 @@
         <v>1.756E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-2.3290999999999999E-2</v>
       </c>
@@ -65738,7 +65740,7 @@
         <v>1.835E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-2.2932999999999999E-2</v>
       </c>
@@ -65851,7 +65853,7 @@
         <v>1.753E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.2386E-2</v>
       </c>
@@ -65964,7 +65966,7 @@
         <v>1.6869999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.2197999999999999E-2</v>
       </c>
@@ -66077,7 +66079,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.1811000000000001E-2</v>
       </c>
@@ -66190,7 +66192,7 @@
         <v>1.688E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.1628000000000001E-2</v>
       </c>
@@ -66303,7 +66305,7 @@
         <v>1.518E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.1832000000000001E-2</v>
       </c>
@@ -66416,7 +66418,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.1493000000000002E-2</v>
       </c>
@@ -66529,7 +66531,7 @@
         <v>1.2520000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.1021999999999999E-2</v>
       </c>
@@ -66642,7 +66644,7 @@
         <v>1.5009999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.1073000000000001E-2</v>
       </c>
@@ -66755,7 +66757,7 @@
         <v>1.405E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.0771999999999999E-2</v>
       </c>
@@ -66868,7 +66870,7 @@
         <v>1.5399999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-2.0625999999999999E-2</v>
       </c>
@@ -66981,7 +66983,7 @@
         <v>1.312E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-2.0473999999999999E-2</v>
       </c>
@@ -67094,7 +67096,7 @@
         <v>1.3179999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-2.0362999999999999E-2</v>
       </c>
@@ -67207,7 +67209,7 @@
         <v>1.243E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-2.0046000000000001E-2</v>
       </c>
@@ -67320,7 +67322,7 @@
         <v>1.052E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.9649E-2</v>
       </c>
@@ -67433,7 +67435,7 @@
         <v>1.1019999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.9407000000000001E-2</v>
       </c>
@@ -67546,7 +67548,7 @@
         <v>1.088E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.8867999999999999E-2</v>
       </c>
@@ -67659,7 +67661,7 @@
         <v>7.18E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.8629E-2</v>
       </c>
@@ -67772,7 +67774,7 @@
         <v>9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.8151E-2</v>
       </c>
@@ -67885,7 +67887,7 @@
         <v>6.3400000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1.7846000000000001E-2</v>
       </c>
@@ -67998,7 +68000,7 @@
         <v>3.5199999999999999E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.7641E-2</v>
       </c>
@@ -68111,7 +68113,7 @@
         <v>5.9400000000000002E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-1.7247999999999999E-2</v>
       </c>
@@ -68224,7 +68226,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-1.6698999999999999E-2</v>
       </c>
@@ -68337,7 +68339,7 @@
         <v>6.2000000000000003E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-1.6452999999999999E-2</v>
       </c>
@@ -68450,7 +68452,7 @@
         <v>1.4E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-1.5696999999999999E-2</v>
       </c>
@@ -68563,7 +68565,7 @@
         <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.6202999999999999E-2</v>
       </c>
@@ -68676,7 +68678,7 @@
         <v>1.7899999999999999E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.6486000000000001E-2</v>
       </c>
@@ -68789,7 +68791,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-1.6421000000000002E-2</v>
       </c>
@@ -68902,7 +68904,7 @@
         <v>-1.0399999999999999E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-1.6896999999999999E-2</v>
       </c>
@@ -69015,7 +69017,7 @@
         <v>3.0299999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-1.7144E-2</v>
       </c>
@@ -69128,7 +69130,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-1.7281999999999999E-2</v>
       </c>
@@ -69241,7 +69243,7 @@
         <v>3.3399999999999999E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-1.7545000000000002E-2</v>
       </c>
@@ -69373,9 +69375,9 @@
       <selection sqref="A1:XFD83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-0.103711</v>
       </c>
@@ -69488,7 +69490,7 @@
         <v>2.2468999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-8.4645999999999999E-2</v>
       </c>
@@ -69601,7 +69603,7 @@
         <v>1.6227999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-6.5224000000000004E-2</v>
       </c>
@@ -69714,7 +69716,7 @@
         <v>9.0699999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.9078999999999998E-2</v>
       </c>
@@ -69827,7 +69829,7 @@
         <v>3.186E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-3.7613000000000001E-2</v>
       </c>
@@ -69940,7 +69942,7 @@
         <v>-4.1E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-2.9749000000000001E-2</v>
       </c>
@@ -70053,7 +70055,7 @@
         <v>-1.6050000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2.4447E-2</v>
       </c>
@@ -70166,7 +70168,7 @@
         <v>-1.4779999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.036E-2</v>
       </c>
@@ -70279,7 +70281,7 @@
         <v>-1.33E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.737E-2</v>
       </c>
@@ -70392,7 +70394,7 @@
         <v>-1.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.4540000000000001E-2</v>
       </c>
@@ -70505,7 +70507,7 @@
         <v>-6.9099999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1.2241999999999999E-2</v>
       </c>
@@ -70618,7 +70620,7 @@
         <v>-6.8199999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1.0199E-2</v>
       </c>
@@ -70731,7 +70733,7 @@
         <v>-3.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-8.5640000000000004E-3</v>
       </c>
@@ -70844,7 +70846,7 @@
         <v>-3.3100000000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-7.0520000000000001E-3</v>
       </c>
@@ -70957,7 +70959,7 @@
         <v>-1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-5.6259999999999999E-3</v>
       </c>
@@ -71070,7 +71072,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-4.3379999999999998E-3</v>
       </c>
@@ -71183,7 +71185,7 @@
         <v>1.17E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.1229999999999999E-3</v>
       </c>
@@ -71296,7 +71298,7 @@
         <v>3.0299999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.9889999999999999E-3</v>
       </c>
@@ -71409,7 +71411,7 @@
         <v>3.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.2329999999999999E-3</v>
       </c>
@@ -71522,7 +71524,7 @@
         <v>3.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.9800000000000002E-4</v>
       </c>
@@ -71635,7 +71637,7 @@
         <v>4.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.17E-4</v>
       </c>
@@ -71748,7 +71750,7 @@
         <v>5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.238E-3</v>
       </c>
@@ -71861,7 +71863,7 @@
         <v>7.36E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.8519999999999999E-3</v>
       </c>
@@ -71974,7 +71976,7 @@
         <v>7.7999999999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.307E-3</v>
       </c>
@@ -72087,7 +72089,7 @@
         <v>7.7499999999999997E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.8630000000000001E-3</v>
       </c>
@@ -72200,7 +72202,7 @@
         <v>8.6799999999999996E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.8670000000000002E-3</v>
       </c>
@@ -72313,7 +72315,7 @@
         <v>9.0799999999999995E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.9559999999999999E-3</v>
       </c>
@@ -72426,7 +72428,7 @@
         <v>9.859999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.862E-3</v>
       </c>
@@ -72539,7 +72541,7 @@
         <v>9.1100000000000003E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.1289999999999998E-3</v>
       </c>
@@ -72652,7 +72654,7 @@
         <v>1.139E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3.3670000000000002E-3</v>
       </c>
@@ -72765,7 +72767,7 @@
         <v>1.3290000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.6210000000000001E-3</v>
       </c>
@@ -72878,7 +72880,7 @@
         <v>1.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.797E-3</v>
       </c>
@@ -72991,7 +72993,7 @@
         <v>1.547E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4.0229999999999997E-3</v>
       </c>
@@ -73104,7 +73106,7 @@
         <v>1.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4.3489999999999996E-3</v>
       </c>
@@ -73217,7 +73219,7 @@
         <v>1.7149999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.6109999999999996E-3</v>
       </c>
@@ -73330,7 +73332,7 @@
         <v>1.7489999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4.8570000000000002E-3</v>
       </c>
@@ -73443,7 +73445,7 @@
         <v>1.738E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5.1510000000000002E-3</v>
       </c>
@@ -73556,7 +73558,7 @@
         <v>1.709E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.4450000000000002E-3</v>
       </c>
@@ -73669,7 +73671,7 @@
         <v>1.6249999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5.738E-3</v>
       </c>
@@ -73782,7 +73784,7 @@
         <v>1.583E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.552E-3</v>
       </c>
@@ -73895,7 +73897,7 @@
         <v>9.1299999999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.9020000000000001E-3</v>
       </c>
@@ -74008,7 +74010,7 @@
         <v>8.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3.1649999999999998E-3</v>
       </c>
@@ -74121,7 +74123,7 @@
         <v>8.92E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3.2620000000000001E-3</v>
       </c>
@@ -74234,7 +74236,7 @@
         <v>7.7899999999999996E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3.356E-3</v>
       </c>
@@ -74347,7 +74349,7 @@
         <v>7.3300000000000004E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3.4740000000000001E-3</v>
       </c>
@@ -74460,7 +74462,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3.7169999999999998E-3</v>
       </c>
@@ -74573,7 +74575,7 @@
         <v>6.5899999999999997E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3.8349999999999999E-3</v>
       </c>
@@ -74686,7 +74688,7 @@
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4.0419999999999996E-3</v>
       </c>
@@ -74799,7 +74801,7 @@
         <v>6.0899999999999995E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.2110000000000003E-3</v>
       </c>
@@ -74912,7 +74914,7 @@
         <v>6.1600000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4.346E-3</v>
       </c>
@@ -75025,7 +75027,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4.6220000000000002E-3</v>
       </c>
@@ -75138,7 +75140,7 @@
         <v>5.8399999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4.9249999999999997E-3</v>
       </c>
@@ -75251,7 +75253,7 @@
         <v>6.4899999999999995E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.1630000000000001E-3</v>
       </c>
@@ -75364,7 +75366,7 @@
         <v>5.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.3189999999999999E-3</v>
       </c>
@@ -75477,7 +75479,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.6730000000000001E-3</v>
       </c>
@@ -75590,7 +75592,7 @@
         <v>4.8999999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5.9569999999999996E-3</v>
       </c>
@@ -75703,7 +75705,7 @@
         <v>3.7599999999999998E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6.1479999999999998E-3</v>
       </c>
@@ -75816,7 +75818,7 @@
         <v>2.5599999999999999E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6.4530000000000004E-3</v>
       </c>
@@ -75929,7 +75931,7 @@
         <v>1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6.7590000000000003E-3</v>
       </c>
@@ -76042,7 +76044,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7.2139999999999999E-3</v>
       </c>
@@ -76155,7 +76157,7 @@
         <v>-2.0799999999999999E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7.2719999999999998E-3</v>
       </c>
@@ -76268,7 +76270,7 @@
         <v>-3.5300000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7.1929999999999997E-3</v>
       </c>
@@ -76381,7 +76383,7 @@
         <v>-4.4299999999999998E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7.3569999999999998E-3</v>
       </c>
@@ -76494,7 +76496,7 @@
         <v>-6.7500000000000004E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7.4939999999999998E-3</v>
       </c>
@@ -76607,7 +76609,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7.2709999999999997E-3</v>
       </c>
@@ -76720,7 +76722,7 @@
         <v>-1.096E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7.0860000000000003E-3</v>
       </c>
@@ -76833,7 +76835,7 @@
         <v>-1.307E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6.881E-3</v>
       </c>
@@ -76946,7 +76948,7 @@
         <v>-1.431E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6.7679999999999997E-3</v>
       </c>
@@ -77059,7 +77061,7 @@
         <v>-1.5809999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6.62E-3</v>
       </c>
@@ -77172,7 +77174,7 @@
         <v>-1.6819999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6.6080000000000002E-3</v>
       </c>
@@ -77285,7 +77287,7 @@
         <v>-1.6770000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.2649999999999997E-3</v>
       </c>
@@ -77398,7 +77400,7 @@
         <v>-1.8079999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6.1479999999999998E-3</v>
       </c>
@@ -77511,7 +77513,7 @@
         <v>-1.879E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5.8710000000000004E-3</v>
       </c>
@@ -77624,7 +77626,7 @@
         <v>-1.9849999999999998E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5.751E-3</v>
       </c>
@@ -77737,7 +77739,7 @@
         <v>-1.9780000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5.476E-3</v>
       </c>
@@ -77850,7 +77852,7 @@
         <v>-2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5.3969999999999999E-3</v>
       </c>
@@ -77963,7 +77965,7 @@
         <v>-2.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5.3090000000000004E-3</v>
       </c>
@@ -78076,7 +78078,7 @@
         <v>-2.5309999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5.3280000000000003E-3</v>
       </c>
@@ -78189,7 +78191,7 @@
         <v>-2.5969999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5.1989999999999996E-3</v>
       </c>
@@ -78302,7 +78304,7 @@
         <v>-2.7810000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.921E-3</v>
       </c>
@@ -78415,7 +78417,7 @@
         <v>-3.1210000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.6290000000000003E-3</v>
       </c>
@@ -78528,7 +78530,7 @@
         <v>-3.4759999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.2989999999999999E-3</v>
       </c>
@@ -78641,7 +78643,7 @@
         <v>-3.6159999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4.7580000000000001E-3</v>
       </c>
@@ -78773,9 +78775,9 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>5.4980000000000001E-2</v>
       </c>
@@ -78888,7 +78890,7 @@
         <v>-2.5113E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.4926000000000001E-2</v>
       </c>
@@ -79001,7 +79003,7 @@
         <v>-1.9924999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.5697E-2</v>
       </c>
@@ -79114,7 +79116,7 @@
         <v>-1.7885999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.8038E-2</v>
       </c>
@@ -79227,7 +79229,7 @@
         <v>-1.3868E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1828E-2</v>
       </c>
@@ -79340,7 +79342,7 @@
         <v>-1.2772E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.6667999999999999E-2</v>
       </c>
@@ -79453,7 +79455,7 @@
         <v>-1.0481000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.2919999999999999E-2</v>
       </c>
@@ -79566,7 +79568,7 @@
         <v>-8.5210000000000008E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9.1570000000000002E-3</v>
       </c>
@@ -79679,7 +79681,7 @@
         <v>-7.6920000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6.4380000000000001E-3</v>
       </c>
@@ -79792,7 +79794,7 @@
         <v>-5.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.4720000000000003E-3</v>
       </c>
@@ -79905,7 +79907,7 @@
         <v>-5.3109999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.2469999999999999E-3</v>
       </c>
@@ -80018,7 +80020,7 @@
         <v>-4.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.116E-3</v>
       </c>
@@ -80131,7 +80133,7 @@
         <v>-3.7919999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-5.9000000000000003E-4</v>
       </c>
@@ -80244,7 +80246,7 @@
         <v>-3.3899999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.3829999999999999E-3</v>
       </c>
@@ -80357,7 +80359,7 @@
         <v>-2.5560000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.931E-3</v>
       </c>
@@ -80470,7 +80472,7 @@
         <v>-2.539E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-2.4489999999999998E-3</v>
       </c>
@@ -80583,7 +80585,7 @@
         <v>-1.8129999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.1960000000000001E-3</v>
       </c>
@@ -80696,7 +80698,7 @@
         <v>-1.905E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.0790000000000001E-3</v>
       </c>
@@ -80809,7 +80811,7 @@
         <v>-1.5330000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.5339999999999998E-3</v>
       </c>
@@ -80922,7 +80924,7 @@
         <v>-1.2019999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.653E-3</v>
       </c>
@@ -81035,7 +81037,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.653E-3</v>
       </c>
@@ -81148,7 +81150,7 @@
         <v>-9.59E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-4.1910000000000003E-3</v>
       </c>
@@ -81261,7 +81263,7 @@
         <v>-6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-4.006E-3</v>
       </c>
@@ -81374,7 +81376,7 @@
         <v>-5.8200000000000005E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-4.0980000000000001E-3</v>
       </c>
@@ -81487,7 +81489,7 @@
         <v>-4.9899999999999999E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-4.3870000000000003E-3</v>
       </c>
@@ -81600,7 +81602,7 @@
         <v>-4.2900000000000002E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.8560000000000001E-3</v>
       </c>
@@ -81713,7 +81715,7 @@
         <v>-2.7599999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-4.1209999999999997E-3</v>
       </c>
@@ -81826,7 +81828,7 @@
         <v>-2.41E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.9890000000000004E-3</v>
       </c>
@@ -81939,7 +81941,7 @@
         <v>-1.95E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-3.7550000000000001E-3</v>
       </c>
@@ -82052,7 +82054,7 @@
         <v>-8.2000000000000001E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3.9370000000000004E-3</v>
       </c>
@@ -82165,7 +82167,7 @@
         <v>-3.8000000000000002E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3.7889999999999998E-3</v>
       </c>
@@ -82278,7 +82280,7 @@
         <v>3.4E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.9069999999999999E-3</v>
       </c>
@@ -82391,7 +82393,7 @@
         <v>-2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-4.0790000000000002E-3</v>
       </c>
@@ -82504,7 +82506,7 @@
         <v>-2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-3.777E-3</v>
       </c>
@@ -82617,7 +82619,7 @@
         <v>8.7000000000000001E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-3.8800000000000002E-3</v>
       </c>
@@ -82730,7 +82732,7 @@
         <v>4.1999999999999998E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.0400000000000002E-3</v>
       </c>
@@ -82843,7 +82845,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-3.8010000000000001E-3</v>
       </c>
@@ -82956,7 +82958,7 @@
         <v>1.1900000000000001E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-4.1330000000000004E-3</v>
       </c>
@@ -83069,7 +83071,7 @@
         <v>-2.3E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-3.8430000000000001E-3</v>
       </c>
@@ -83182,7 +83184,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-5.9769999999999997E-3</v>
       </c>
@@ -83295,7 +83297,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-5.6150000000000002E-3</v>
       </c>
@@ -83408,7 +83410,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-5.7499999999999999E-3</v>
       </c>
@@ -83521,7 +83523,7 @@
         <v>3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-5.2830000000000004E-3</v>
       </c>
@@ -83634,7 +83636,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-4.9919999999999999E-3</v>
       </c>
@@ -83747,7 +83749,7 @@
         <v>1.16E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-4.7829999999999999E-3</v>
       </c>
@@ -83860,7 +83862,7 @@
         <v>1.07E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-4.6319999999999998E-3</v>
       </c>
@@ -83973,7 +83975,7 @@
         <v>1.54E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-4.5319999999999996E-3</v>
       </c>
@@ -84086,7 +84088,7 @@
         <v>1.05E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-4.385E-3</v>
       </c>
@@ -84199,7 +84201,7 @@
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-4.2430000000000002E-3</v>
       </c>
@@ -84312,7 +84314,7 @@
         <v>1.01E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-4.0980000000000001E-3</v>
       </c>
@@ -84425,7 +84427,7 @@
         <v>1.7699999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-3.9560000000000003E-3</v>
       </c>
@@ -84538,7 +84540,7 @@
         <v>1.4200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-3.8279999999999998E-3</v>
       </c>
@@ -84651,7 +84653,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-3.6280000000000001E-3</v>
       </c>
@@ -84764,7 +84766,7 @@
         <v>2.4800000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-3.6540000000000001E-3</v>
       </c>
@@ -84877,7 +84879,7 @@
         <v>9.2999999999999997E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-3.4840000000000001E-3</v>
       </c>
@@ -84990,7 +84992,7 @@
         <v>1.15E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-3.088E-3</v>
       </c>
@@ -85103,7 +85105,7 @@
         <v>1.26E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.8630000000000001E-3</v>
       </c>
@@ -85216,7 +85218,7 @@
         <v>5.3999999999999998E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.6580000000000002E-3</v>
       </c>
@@ -85329,7 +85331,7 @@
         <v>-3.8999999999999999E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.2460000000000002E-3</v>
       </c>
@@ -85442,7 +85444,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.97E-3</v>
       </c>
@@ -85555,7 +85557,7 @@
         <v>-1.9900000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.485E-3</v>
       </c>
@@ -85668,7 +85670,7 @@
         <v>-1.4E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.044E-3</v>
       </c>
@@ -85781,7 +85783,7 @@
         <v>-3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-8.6300000000000005E-4</v>
       </c>
@@ -85894,7 +85896,7 @@
         <v>-3.8000000000000002E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-3.7399999999999998E-4</v>
       </c>
@@ -86007,7 +86009,7 @@
         <v>-4.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-7.9999999999999996E-6</v>
       </c>
@@ -86120,7 +86122,7 @@
         <v>-6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3.9500000000000001E-4</v>
       </c>
@@ -86233,7 +86235,7 @@
         <v>-8.1400000000000005E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8.3199999999999995E-4</v>
       </c>
@@ -86346,7 +86348,7 @@
         <v>-8.0999999999999996E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.2110000000000001E-3</v>
       </c>
@@ -86459,7 +86461,7 @@
         <v>-9.6100000000000005E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.769E-3</v>
       </c>
@@ -86572,7 +86574,7 @@
         <v>-9.4799999999999995E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.818E-3</v>
       </c>
@@ -86685,7 +86687,7 @@
         <v>-1.0889999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2.2959999999999999E-3</v>
       </c>
@@ -86798,7 +86800,7 @@
         <v>-1.1130000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.294E-3</v>
       </c>
@@ -86911,7 +86913,7 @@
         <v>-1.1820000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.5950000000000001E-3</v>
       </c>
@@ -87024,7 +87026,7 @@
         <v>-1.2750000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3.0869999999999999E-3</v>
       </c>
@@ -87137,7 +87139,7 @@
         <v>-1.2930000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.8800000000000002E-3</v>
       </c>
@@ -87250,7 +87252,7 @@
         <v>-1.3910000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3.3119999999999998E-3</v>
       </c>
@@ -87363,7 +87365,7 @@
         <v>-1.505E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3.6350000000000002E-3</v>
       </c>
@@ -87476,7 +87478,7 @@
         <v>-1.4840000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3.4640000000000001E-3</v>
       </c>
@@ -87589,7 +87591,7 @@
         <v>-1.6789999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3.7919999999999998E-3</v>
       </c>
@@ -87702,7 +87704,7 @@
         <v>-1.655E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.0980000000000001E-3</v>
       </c>
@@ -87815,7 +87817,7 @@
         <v>-1.652E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.2290000000000001E-3</v>
       </c>
@@ -87928,7 +87930,7 @@
         <v>-1.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.8640000000000003E-3</v>
       </c>
@@ -88041,7 +88043,7 @@
         <v>-1.8190000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4.6210000000000001E-3</v>
       </c>
